--- a/output/NOVUS_14146726000141.xlsx
+++ b/output/NOVUS_14146726000141.xlsx
@@ -1571,10 +1571,10 @@
         <v>44165</v>
       </c>
       <c r="B108">
-        <v>1.5408548</v>
+        <v>1.5390402</v>
       </c>
       <c r="C108">
-        <v>0.04356733960960701</v>
+        <v>0.04282205605603462</v>
       </c>
     </row>
   </sheetData>

--- a/output/NOVUS_14146726000141.xlsx
+++ b/output/NOVUS_14146726000141.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>NOVUS MACRO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1195 +383,874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40939</v>
       </c>
       <c r="B2">
-        <v>0.01121506999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40968</v>
       </c>
       <c r="B3">
-        <v>0.03900781999999992</v>
-      </c>
-      <c r="C3">
         <v>0.02748450930423729</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40999</v>
       </c>
       <c r="B4">
-        <v>0.1253607000000001</v>
-      </c>
-      <c r="C4">
         <v>0.08311090478606808</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41029</v>
       </c>
       <c r="B5">
-        <v>0.13210926</v>
-      </c>
-      <c r="C5">
         <v>0.005996797293525535</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41060</v>
       </c>
       <c r="B6">
-        <v>0.19346723</v>
-      </c>
-      <c r="C6">
         <v>0.05419792255740408</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41090</v>
       </c>
       <c r="B7">
-        <v>0.2013826299999999</v>
-      </c>
-      <c r="C7">
         <v>0.006632272592855371</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41121</v>
       </c>
       <c r="B8">
-        <v>0.24248162</v>
-      </c>
-      <c r="C8">
         <v>0.03420974215350525</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41152</v>
       </c>
       <c r="B9">
-        <v>0.2308168500000001</v>
-      </c>
-      <c r="C9">
         <v>-0.009388283747810977</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41182</v>
       </c>
       <c r="B10">
-        <v>0.2335026099999999</v>
-      </c>
-      <c r="C10">
         <v>0.002182095573358245</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41213</v>
       </c>
       <c r="B11">
-        <v>0.1983045400000001</v>
-      </c>
-      <c r="C11">
         <v>-0.02853505920023947</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41243</v>
       </c>
       <c r="B12">
-        <v>0.22396493</v>
-      </c>
-      <c r="C12">
         <v>0.02141391369509438</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41274</v>
       </c>
       <c r="B13">
-        <v>0.2765515700000001</v>
-      </c>
-      <c r="C13">
         <v>0.04296417218424731</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41305</v>
       </c>
       <c r="B14">
-        <v>0.3124483600000001</v>
-      </c>
-      <c r="C14">
         <v>0.02812012522141982</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41333</v>
       </c>
       <c r="B15">
-        <v>0.2979163300000001</v>
-      </c>
-      <c r="C15">
         <v>-0.0110724585003863</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41364</v>
       </c>
       <c r="B16">
-        <v>0.30107909</v>
-      </c>
-      <c r="C16">
         <v>0.002436798063862877</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41394</v>
       </c>
       <c r="B17">
-        <v>0.29735249</v>
-      </c>
-      <c r="C17">
         <v>-0.002864237868890784</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41425</v>
       </c>
       <c r="B18">
-        <v>0.29570903</v>
-      </c>
-      <c r="C18">
         <v>-0.001266779855642719</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41455</v>
       </c>
       <c r="B19">
-        <v>0.31655192</v>
-      </c>
-      <c r="C19">
         <v>0.01608608840211589</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41486</v>
       </c>
       <c r="B20">
-        <v>0.3195869200000001</v>
-      </c>
-      <c r="C20">
         <v>0.00230526419345467</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41517</v>
       </c>
       <c r="B21">
-        <v>0.3288417299999999</v>
-      </c>
-      <c r="C21">
         <v>0.00701341447064352</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41547</v>
       </c>
       <c r="B22">
-        <v>0.28190315</v>
-      </c>
-      <c r="C22">
         <v>-0.03532292743395404</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41578</v>
       </c>
       <c r="B23">
-        <v>0.24637084</v>
-      </c>
-      <c r="C23">
         <v>-0.02771840446760743</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41608</v>
       </c>
       <c r="B24">
-        <v>0.2637521</v>
-      </c>
-      <c r="C24">
         <v>0.01394549635002695</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41639</v>
       </c>
       <c r="B25">
-        <v>0.2938877799999999</v>
-      </c>
-      <c r="C25">
         <v>0.02384619578475866</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41670</v>
       </c>
       <c r="B26">
-        <v>0.2548807099999999</v>
-      </c>
-      <c r="C26">
         <v>-0.03014718169762765</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41698</v>
       </c>
       <c r="B27">
-        <v>0.26272882</v>
-      </c>
-      <c r="C27">
         <v>0.006254068564015114</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41729</v>
       </c>
       <c r="B28">
-        <v>0.25085595</v>
-      </c>
-      <c r="C28">
         <v>-0.009402549313794806</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41759</v>
       </c>
       <c r="B29">
-        <v>0.2515801900000001</v>
-      </c>
-      <c r="C29">
         <v>0.0005789955270230074</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41790</v>
       </c>
       <c r="B30">
-        <v>0.1696177999999999</v>
-      </c>
-      <c r="C30">
         <v>-0.06548712631829057</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41820</v>
       </c>
       <c r="B31">
-        <v>0.1544892</v>
-      </c>
-      <c r="C31">
         <v>-0.01293465267029958</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41851</v>
       </c>
       <c r="B32">
-        <v>0.1424536000000001</v>
-      </c>
-      <c r="C32">
         <v>-0.01042504338715333</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41882</v>
       </c>
       <c r="B33">
-        <v>0.1652303399999999</v>
-      </c>
-      <c r="C33">
         <v>0.01993668714423058</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41912</v>
       </c>
       <c r="B34">
-        <v>0.16839129</v>
-      </c>
-      <c r="C34">
         <v>0.002712725451347264</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41943</v>
       </c>
       <c r="B35">
-        <v>0.1822343500000001</v>
-      </c>
-      <c r="C35">
         <v>0.01184796576153868</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41973</v>
       </c>
       <c r="B36">
-        <v>0.2116884400000001</v>
-      </c>
-      <c r="C36">
         <v>0.02491391829377987</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42004</v>
       </c>
       <c r="B37">
-        <v>0.2402281399999999</v>
-      </c>
-      <c r="C37">
         <v>0.02355366202882969</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42035</v>
       </c>
       <c r="B38">
-        <v>0.2746726100000001</v>
-      </c>
-      <c r="C38">
         <v>0.02777268866033</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42063</v>
       </c>
       <c r="B39">
-        <v>0.27875955</v>
-      </c>
-      <c r="C39">
         <v>0.003206266431032834</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42094</v>
       </c>
       <c r="B40">
-        <v>0.3275378499999999</v>
-      </c>
-      <c r="C40">
         <v>0.03814501326695852</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42124</v>
       </c>
       <c r="B41">
-        <v>0.3203475499999999</v>
-      </c>
-      <c r="C41">
         <v>-0.005416267415652154</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42155</v>
       </c>
       <c r="B42">
-        <v>0.34250033</v>
-      </c>
-      <c r="C42">
         <v>0.01677799152200499</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42185</v>
       </c>
       <c r="B43">
-        <v>0.34872166</v>
-      </c>
-      <c r="C43">
         <v>0.004634136663489663</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42216</v>
       </c>
       <c r="B44">
-        <v>0.3930808699999999</v>
-      </c>
-      <c r="C44">
         <v>0.03288981805185798</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42247</v>
       </c>
       <c r="B45">
-        <v>0.4242892599999999</v>
-      </c>
-      <c r="C45">
         <v>0.02240242520881064</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42277</v>
       </c>
       <c r="B46">
-        <v>0.45662545</v>
-      </c>
-      <c r="C46">
         <v>0.02270338681062589</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42308</v>
       </c>
       <c r="B47">
-        <v>0.46405513</v>
-      </c>
-      <c r="C47">
         <v>0.005100611142006439</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42338</v>
       </c>
       <c r="B48">
-        <v>0.4871090600000001</v>
-      </c>
-      <c r="C48">
         <v>0.01574662697298845</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42369</v>
       </c>
       <c r="B49">
-        <v>0.50101018</v>
-      </c>
-      <c r="C49">
         <v>0.009347747501450732</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42400</v>
       </c>
       <c r="B50">
-        <v>0.5266085199999999</v>
-      </c>
-      <c r="C50">
         <v>0.01705407487642741</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42429</v>
       </c>
       <c r="B51">
-        <v>0.56668765</v>
-      </c>
-      <c r="C51">
         <v>0.02625370517387138</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42460</v>
       </c>
       <c r="B52">
-        <v>0.62728666</v>
-      </c>
-      <c r="C52">
         <v>0.03867970108783325</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42490</v>
       </c>
       <c r="B53">
-        <v>0.6691245299999999</v>
-      </c>
-      <c r="C53">
         <v>0.02571020277398439</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42521</v>
       </c>
       <c r="B54">
-        <v>0.6839493400000001</v>
-      </c>
-      <c r="C54">
         <v>0.008881787867559554</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42551</v>
       </c>
       <c r="B55">
-        <v>0.7309355200000001</v>
-      </c>
-      <c r="C55">
         <v>0.02790237145732655</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42582</v>
       </c>
       <c r="B56">
-        <v>0.7533657499999999</v>
-      </c>
-      <c r="C56">
         <v>0.01295844342023789</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42613</v>
       </c>
       <c r="B57">
-        <v>0.7534421899999999</v>
-      </c>
-      <c r="C57">
         <v>4.359615214344359e-05</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42643</v>
       </c>
       <c r="B58">
-        <v>0.78084566</v>
-      </c>
-      <c r="C58">
         <v>0.01562838521639542</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42674</v>
       </c>
       <c r="B59">
-        <v>0.8015335800000001</v>
-      </c>
-      <c r="C59">
         <v>0.0116169078908277</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42704</v>
       </c>
       <c r="B60">
-        <v>0.8274785600000001</v>
-      </c>
-      <c r="C60">
         <v>0.01440160776797739</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42735</v>
       </c>
       <c r="B61">
-        <v>0.8630540499999999</v>
-      </c>
-      <c r="C61">
         <v>0.01946698077814912</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42766</v>
       </c>
       <c r="B62">
-        <v>0.90201317</v>
-      </c>
-      <c r="C62">
         <v>0.02091142766362575</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42794</v>
       </c>
       <c r="B63">
-        <v>0.93957673</v>
-      </c>
-      <c r="C63">
         <v>0.01974936903302305</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42825</v>
       </c>
       <c r="B64">
-        <v>0.9674989199999999</v>
-      </c>
-      <c r="C64">
         <v>0.01439602237339699</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42855</v>
       </c>
       <c r="B65">
-        <v>0.96722906</v>
-      </c>
-      <c r="C65">
         <v>-0.0001371589062930667</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42886</v>
       </c>
       <c r="B66">
-        <v>0.9488790600000001</v>
-      </c>
-      <c r="C66">
         <v>-0.00932784105985085</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42916</v>
       </c>
       <c r="B67">
-        <v>0.94994585</v>
-      </c>
-      <c r="C67">
         <v>0.0005473864550629148</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42947</v>
       </c>
       <c r="B68">
-        <v>0.97093881</v>
-      </c>
-      <c r="C68">
         <v>0.01076591947412275</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42978</v>
       </c>
       <c r="B69">
-        <v>1.00700099</v>
-      </c>
-      <c r="C69">
         <v>0.0182969556523167</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43008</v>
       </c>
       <c r="B70">
-        <v>1.05223633</v>
-      </c>
-      <c r="C70">
         <v>0.02253877313732677</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43039</v>
       </c>
       <c r="B71">
-        <v>1.03647019</v>
-      </c>
-      <c r="C71">
         <v>-0.007682419304992916</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43069</v>
       </c>
       <c r="B72">
-        <v>1.03102841</v>
-      </c>
-      <c r="C72">
         <v>-0.002672162856457216</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43100</v>
       </c>
       <c r="B73">
-        <v>1.05040398</v>
-      </c>
-      <c r="C73">
         <v>0.009539782853160705</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43131</v>
       </c>
       <c r="B74">
-        <v>1.08693171</v>
-      </c>
-      <c r="C74">
         <v>0.0178148942141636</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43159</v>
       </c>
       <c r="B75">
-        <v>1.11493077</v>
-      </c>
-      <c r="C75">
         <v>0.01341637575673227</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43190</v>
       </c>
       <c r="B76">
-        <v>1.12478845</v>
-      </c>
-      <c r="C76">
         <v>0.004660994175237354</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43220</v>
       </c>
       <c r="B77">
-        <v>1.12163702</v>
-      </c>
-      <c r="C77">
         <v>-0.001483173536640736</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43251</v>
       </c>
       <c r="B78">
-        <v>1.07987577</v>
-      </c>
-      <c r="C78">
         <v>-0.01968350363720561</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43281</v>
       </c>
       <c r="B79">
-        <v>1.07250315</v>
-      </c>
-      <c r="C79">
         <v>-0.003544740559192072</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43312</v>
       </c>
       <c r="B80">
-        <v>1.07994657</v>
-      </c>
-      <c r="C80">
         <v>0.003591512032201205</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43343</v>
       </c>
       <c r="B81">
-        <v>1.06862068</v>
-      </c>
-      <c r="C81">
         <v>-0.005445279298688988</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43373</v>
       </c>
       <c r="B82">
-        <v>1.07201618</v>
-      </c>
-      <c r="C82">
         <v>0.001641431912978719</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43404</v>
       </c>
       <c r="B83">
-        <v>1.1783914</v>
-      </c>
-      <c r="C83">
         <v>0.05133899099185624</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43434</v>
       </c>
       <c r="B84">
-        <v>1.1609677</v>
-      </c>
-      <c r="C84">
         <v>-0.007998424892790235</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43465</v>
       </c>
       <c r="B85">
-        <v>1.1896412</v>
-      </c>
-      <c r="C85">
         <v>0.01326882396252382</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43496</v>
       </c>
       <c r="B86">
-        <v>1.2823535</v>
-      </c>
-      <c r="C86">
         <v>0.04234132057800166</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43524</v>
       </c>
       <c r="B87">
-        <v>1.2411693</v>
-      </c>
-      <c r="C87">
         <v>-0.01804461929319889</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43555</v>
       </c>
       <c r="B88">
-        <v>1.2475238</v>
-      </c>
-      <c r="C88">
         <v>0.002835350278981519</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43585</v>
       </c>
       <c r="B89">
-        <v>1.2373015</v>
-      </c>
-      <c r="C89">
         <v>-0.004548249945117488</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43616</v>
       </c>
       <c r="B90">
-        <v>1.2585099</v>
-      </c>
-      <c r="C90">
         <v>0.009479455495828404</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43646</v>
       </c>
       <c r="B91">
-        <v>1.3477621</v>
-      </c>
-      <c r="C91">
         <v>0.03951817966350291</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43677</v>
       </c>
       <c r="B92">
-        <v>1.3587419</v>
-      </c>
-      <c r="C92">
         <v>0.004676708939121088</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43708</v>
       </c>
       <c r="B93">
-        <v>1.3769856</v>
-      </c>
-      <c r="C93">
         <v>0.00773450456787983</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43738</v>
       </c>
       <c r="B94">
-        <v>1.3743654</v>
-      </c>
-      <c r="C94">
         <v>-0.001102320518895805</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43769</v>
       </c>
       <c r="B95">
-        <v>1.4026842</v>
-      </c>
-      <c r="C95">
         <v>0.01192689212873477</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43799</v>
       </c>
       <c r="B96">
-        <v>1.3555959</v>
-      </c>
-      <c r="C96">
         <v>-0.01959820603972839</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43830</v>
       </c>
       <c r="B97">
-        <v>1.4466458</v>
-      </c>
-      <c r="C97">
         <v>0.03865259741706972</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43861</v>
       </c>
       <c r="B98">
-        <v>1.3903659</v>
-      </c>
-      <c r="C98">
         <v>-0.02300288010630724</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43890</v>
       </c>
       <c r="B99">
-        <v>1.3210851</v>
-      </c>
-      <c r="C99">
         <v>-0.02898334518577261</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43921</v>
       </c>
       <c r="B100">
-        <v>1.2627401</v>
-      </c>
-      <c r="C100">
         <v>-0.02513694995500171</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43951</v>
       </c>
       <c r="B101">
-        <v>1.2980951</v>
-      </c>
-      <c r="C101">
         <v>0.01562486120257467</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43982</v>
       </c>
       <c r="B102">
-        <v>1.3797828</v>
-      </c>
-      <c r="C102">
         <v>0.03554583097975383</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>44012</v>
       </c>
       <c r="B103">
-        <v>1.458761</v>
-      </c>
-      <c r="C103">
         <v>0.03318714632276532</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>44043</v>
       </c>
       <c r="B104">
-        <v>1.5088454</v>
-      </c>
-      <c r="C104">
         <v>0.02036977160447884</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>44074</v>
       </c>
       <c r="B105">
-        <v>1.510809</v>
-      </c>
-      <c r="C105">
         <v>0.0007826707855336235</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>44104</v>
       </c>
       <c r="B106">
-        <v>1.4491874</v>
-      </c>
-      <c r="C106">
         <v>-0.02454252792625811</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>44135</v>
       </c>
       <c r="B107">
-        <v>1.434778</v>
-      </c>
-      <c r="C107">
         <v>-0.005883339102593754</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>44165</v>
       </c>
       <c r="B108">
-        <v>1.5390402</v>
-      </c>
-      <c r="C108">
-        <v>0.04282205605603462</v>
+        <v>0.03718823646344749</v>
       </c>
     </row>
   </sheetData>
